--- a/planilha_notif.xlsx
+++ b/planilha_notif.xlsx
@@ -14,57 +14,450 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>Endereco</t>
-  </si>
-  <si>
-    <t>Proprietario</t>
-  </si>
-  <si>
-    <t>Status</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="148">
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Tipo da Notificação</t>
+  </si>
+  <si>
+    <t>Motivo</t>
+  </si>
+  <si>
+    <t>Nº da Notif</t>
+  </si>
+  <si>
+    <t>Proprietário</t>
+  </si>
+  <si>
+    <t>Situação do Processo</t>
+  </si>
+  <si>
+    <t>Relatório Nº</t>
+  </si>
+  <si>
+    <t>Fiscal</t>
+  </si>
+  <si>
+    <t>Setor</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Praça do Carmo, 505</t>
+  </si>
+  <si>
+    <t>Travessa Alegre, 415</t>
+  </si>
+  <si>
+    <t>Estrada Real, 717</t>
+  </si>
+  <si>
+    <t>Rua São José, 707</t>
+  </si>
+  <si>
+    <t>Estrada Velha, 112</t>
+  </si>
+  <si>
+    <t>Rua das Acácias, 313</t>
+  </si>
+  <si>
+    <t>Avenida Rio Branco, 303</t>
+  </si>
+  <si>
+    <t>Rua da Paz, 202</t>
+  </si>
+  <si>
+    <t>Praça da Liberdade, 789</t>
+  </si>
+  <si>
+    <t>Avenida Central, 456</t>
+  </si>
+  <si>
+    <t>Avenida dos Ipês, 515</t>
+  </si>
+  <si>
+    <t>Vila Esperança, 212</t>
+  </si>
+  <si>
+    <t>Alameda dos Pinheiros, 131</t>
+  </si>
+  <si>
+    <t>Travessa dos Lírios, 111</t>
+  </si>
+  <si>
+    <t>Rua Bela Vista, 617</t>
+  </si>
+  <si>
+    <t>Alameda das Rosas, 909</t>
+  </si>
+  <si>
+    <t>Rua do Sol, 101</t>
+  </si>
+  <si>
+    <t>Vila Nova, 819</t>
   </si>
   <si>
     <t>Rua das Flores, 123</t>
   </si>
   <si>
-    <t>Avenida Brasil, 456</t>
-  </si>
-  <si>
-    <t>Praça Central, 789</t>
-  </si>
-  <si>
-    <t>Rua das Acácias, 321</t>
-  </si>
-  <si>
-    <t>Alameda dos Ipês, 654</t>
-  </si>
-  <si>
-    <t>João Silva</t>
-  </si>
-  <si>
-    <t>Maria Oliveira</t>
-  </si>
-  <si>
-    <t>Carlos Pereira</t>
-  </si>
-  <si>
-    <t>Ana Costa</t>
-  </si>
-  <si>
-    <t>Rafael Souza</t>
-  </si>
-  <si>
-    <t>Aprovado</t>
-  </si>
-  <si>
-    <t>Pendente</t>
-  </si>
-  <si>
-    <t>Reprovado</t>
+    <t>Rua Aurora, 919</t>
+  </si>
+  <si>
+    <t>Advertência</t>
+  </si>
+  <si>
+    <t>Intimação</t>
+  </si>
+  <si>
+    <t>Multa</t>
+  </si>
+  <si>
+    <t>Falta de documentação</t>
+  </si>
+  <si>
+    <t>Construção irregular</t>
+  </si>
+  <si>
+    <t>Obra embargada</t>
+  </si>
+  <si>
+    <t>Projeto divergente</t>
+  </si>
+  <si>
+    <t>Reclamação de vizinho</t>
+  </si>
+  <si>
+    <t>2025-4994</t>
+  </si>
+  <si>
+    <t>2025-9990</t>
+  </si>
+  <si>
+    <t>2025-8397</t>
+  </si>
+  <si>
+    <t>2025-5717</t>
+  </si>
+  <si>
+    <t>2025-8071</t>
+  </si>
+  <si>
+    <t>2025-7273</t>
+  </si>
+  <si>
+    <t>2025-5001</t>
+  </si>
+  <si>
+    <t>2025-2207</t>
+  </si>
+  <si>
+    <t>2025-4181</t>
+  </si>
+  <si>
+    <t>2025-7719</t>
+  </si>
+  <si>
+    <t>2025-8661</t>
+  </si>
+  <si>
+    <t>2025-8744</t>
+  </si>
+  <si>
+    <t>2025-9296</t>
+  </si>
+  <si>
+    <t>2025-1422</t>
+  </si>
+  <si>
+    <t>2025-4264</t>
+  </si>
+  <si>
+    <t>2025-7953</t>
+  </si>
+  <si>
+    <t>2025-6318</t>
+  </si>
+  <si>
+    <t>2025-8942</t>
+  </si>
+  <si>
+    <t>2025-5588</t>
+  </si>
+  <si>
+    <t>2025-6142</t>
+  </si>
+  <si>
+    <t>Clara Mendes</t>
+  </si>
+  <si>
+    <t>Juliana Barbosa</t>
+  </si>
+  <si>
+    <t>Patrícia Gomes</t>
+  </si>
+  <si>
+    <t>Thiago Monteiro</t>
+  </si>
+  <si>
+    <t>Gabriela Moreira</t>
+  </si>
+  <si>
+    <t>Ana Souza</t>
+  </si>
+  <si>
+    <t>Larissa Ribeiro</t>
+  </si>
+  <si>
+    <t>Fernando Rocha</t>
+  </si>
+  <si>
+    <t>Mariana Oliveira</t>
+  </si>
+  <si>
+    <t>Carlos Silva</t>
+  </si>
+  <si>
+    <t>Bruno Nunes</t>
+  </si>
+  <si>
+    <t>Rafael Lima</t>
+  </si>
+  <si>
+    <t>Pedro Santos</t>
+  </si>
+  <si>
+    <t>João Costa</t>
+  </si>
+  <si>
+    <t>Beatriz Almeida</t>
+  </si>
+  <si>
+    <t>André Carvalho</t>
+  </si>
+  <si>
+    <t>Ricardo Fonseca</t>
+  </si>
+  <si>
+    <t>Carolina Dias</t>
+  </si>
+  <si>
+    <t>Sofia Martins</t>
+  </si>
+  <si>
+    <t>Lucas Pereira</t>
+  </si>
+  <si>
+    <t>Deferido</t>
   </si>
   <si>
     <t>Em análise</t>
+  </si>
+  <si>
+    <t>Aguardando documentação</t>
+  </si>
+  <si>
+    <t>Indeferido</t>
+  </si>
+  <si>
+    <t>Rel-2302</t>
+  </si>
+  <si>
+    <t>Rel-2651</t>
+  </si>
+  <si>
+    <t>Rel-2665</t>
+  </si>
+  <si>
+    <t>Rel-2210</t>
+  </si>
+  <si>
+    <t>Rel-2476</t>
+  </si>
+  <si>
+    <t>Rel-2609</t>
+  </si>
+  <si>
+    <t>Rel-2898</t>
+  </si>
+  <si>
+    <t>Rel-2352</t>
+  </si>
+  <si>
+    <t>Rel-2067</t>
+  </si>
+  <si>
+    <t>Rel-2630</t>
+  </si>
+  <si>
+    <t>Rel-2558</t>
+  </si>
+  <si>
+    <t>Rel-2062</t>
+  </si>
+  <si>
+    <t>Rel-2309</t>
+  </si>
+  <si>
+    <t>Rel-2390</t>
+  </si>
+  <si>
+    <t>Rel-2088</t>
+  </si>
+  <si>
+    <t>Rel-2869</t>
+  </si>
+  <si>
+    <t>Rel-2176</t>
+  </si>
+  <si>
+    <t>Rel-2740</t>
+  </si>
+  <si>
+    <t>Rel-2329</t>
+  </si>
+  <si>
+    <t>Fiscal A</t>
+  </si>
+  <si>
+    <t>Fiscal B</t>
+  </si>
+  <si>
+    <t>Fiscal C</t>
+  </si>
+  <si>
+    <t>Fiscal D</t>
+  </si>
+  <si>
+    <t>Fiscal E</t>
+  </si>
+  <si>
+    <t>Fiscal F</t>
+  </si>
+  <si>
+    <t>Fiscal G</t>
+  </si>
+  <si>
+    <t>Fiscal H</t>
+  </si>
+  <si>
+    <t>Fiscal I</t>
+  </si>
+  <si>
+    <t>Fiscal J</t>
+  </si>
+  <si>
+    <t>Fiscal K</t>
+  </si>
+  <si>
+    <t>Fiscal L</t>
+  </si>
+  <si>
+    <t>Fiscal M</t>
+  </si>
+  <si>
+    <t>Fiscal N</t>
+  </si>
+  <si>
+    <t>Fiscal O</t>
+  </si>
+  <si>
+    <t>Fiscal P</t>
+  </si>
+  <si>
+    <t>Fiscal Q</t>
+  </si>
+  <si>
+    <t>Fiscal R</t>
+  </si>
+  <si>
+    <t>Fiscal S</t>
+  </si>
+  <si>
+    <t>Fiscal T</t>
+  </si>
+  <si>
+    <t>Aguardando resposta do proprietário</t>
+  </si>
+  <si>
+    <t>Prazo estendido</t>
+  </si>
+  <si>
+    <t>Revisar projeto</t>
+  </si>
+  <si>
+    <t>Documentação incompleta</t>
+  </si>
+  <si>
+    <t>Situação crítica</t>
+  </si>
+  <si>
+    <t>Proceder com fiscalização</t>
+  </si>
+  <si>
+    <t>04/11/2022</t>
+  </si>
+  <si>
+    <t>25/09/2024</t>
+  </si>
+  <si>
+    <t>03/08/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>05/11/2023</t>
+  </si>
+  <si>
+    <t>15/01/2023</t>
+  </si>
+  <si>
+    <t>29/06/2023</t>
+  </si>
+  <si>
+    <t>12/05/2022</t>
+  </si>
+  <si>
+    <t>01/03/2023</t>
+  </si>
+  <si>
+    <t>31/03/2024</t>
+  </si>
+  <si>
+    <t>06/12/2022</t>
+  </si>
+  <si>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>14/12/2024</t>
+  </si>
+  <si>
+    <t>02/10/2023</t>
+  </si>
+  <si>
+    <t>13/04/2023</t>
+  </si>
+  <si>
+    <t>16/10/2023</t>
+  </si>
+  <si>
+    <t>03/05/2022</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>24/11/2024</t>
+  </si>
+  <si>
+    <t>14/09/2022</t>
   </si>
 </sst>
 </file>
@@ -422,13 +815,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,60 +831,729 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="J4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="J5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="J7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
+      <c r="J18" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
